--- a/media/predicted_rnas.xlsx
+++ b/media/predicted_rnas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Drug Sequence</t>
   </si>
@@ -22,28 +22,16 @@
     <t>RNA_ID</t>
   </si>
   <si>
+    <t>Sequence</t>
+  </si>
+  <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>CC(C)OC1=C(NC2=NC=C(Cl)C(N2)=NC2=CC=CC=C2S(=O)(=O)C(C)C)C=C(C)C(=C1)C1CCNCC1</t>
-  </si>
-  <si>
-    <t>COC(=O)C1=CCCN(C)C1</t>
-  </si>
-  <si>
-    <t>MIMAT0000256</t>
-  </si>
-  <si>
-    <t>MIMAT0000278</t>
-  </si>
-  <si>
-    <t>MIMAT0000073</t>
-  </si>
-  <si>
-    <t>MIMAT0000259</t>
-  </si>
-  <si>
-    <t>MIMAT0000244</t>
+    <t>CC1=CN(C=N1)C1=CC(NC(=O)C2=CC=C(C)C(NC3=NC=CC(=N3)C3=CN=CC=C3)=C2)=CC(=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CN[C@H]1[C@H](O)[C@@H](O)[C@H](CO)O[C@H]1O[C@H]1[C@H](O[C@H]2[C@H](O)[C@@H](O)[C@H](NC(N)=N)[C@@H](O)[C@@H]2NC(N)=N)O[C@@H](C)[C@]1(O)C=O</t>
   </si>
   <si>
     <t>MIMAT0000255</t>
@@ -52,43 +40,64 @@
     <t>MIMAT0000100</t>
   </si>
   <si>
+    <t>MIMAT0000069</t>
+  </si>
+  <si>
+    <t>MIMAT0000430</t>
+  </si>
+  <si>
+    <t>MIMAT0001631</t>
+  </si>
+  <si>
     <t>MIMAT0000076</t>
   </si>
   <si>
-    <t>MIMAT0000069</t>
-  </si>
-  <si>
-    <t>MIMAT0001631</t>
-  </si>
-  <si>
-    <t>0.99916744</t>
-  </si>
-  <si>
-    <t>0.99864227</t>
-  </si>
-  <si>
-    <t>0.9981748</t>
-  </si>
-  <si>
-    <t>0.9981646</t>
-  </si>
-  <si>
-    <t>0.99775296</t>
-  </si>
-  <si>
-    <t>0.92848957</t>
-  </si>
-  <si>
-    <t>0.9092792</t>
-  </si>
-  <si>
-    <t>0.7908063</t>
-  </si>
-  <si>
-    <t>0.7784911</t>
-  </si>
-  <si>
-    <t>0.76774484</t>
+    <t>UGGCAGUGUCUUAGCUGGUUGU</t>
+  </si>
+  <si>
+    <t>UAGCACCAUUUGAAAUCAGUGUU</t>
+  </si>
+  <si>
+    <t>UAGCAGCACGUAAAUAUUGGCG</t>
+  </si>
+  <si>
+    <t>AGCUGGUGUUGUGAAUCAGGCCG</t>
+  </si>
+  <si>
+    <t>AAACCGUUACCAUUACUGAGUU</t>
+  </si>
+  <si>
+    <t>UAGCUUAUCAGACUGAUGUUGA</t>
+  </si>
+  <si>
+    <t>0.9809092</t>
+  </si>
+  <si>
+    <t>0.9754219</t>
+  </si>
+  <si>
+    <t>0.92320144</t>
+  </si>
+  <si>
+    <t>0.89227533</t>
+  </si>
+  <si>
+    <t>0.87632114</t>
+  </si>
+  <si>
+    <t>0.9662793</t>
+  </si>
+  <si>
+    <t>0.94811857</t>
+  </si>
+  <si>
+    <t>0.91984457</t>
+  </si>
+  <si>
+    <t>0.87992126</t>
+  </si>
+  <si>
+    <t>0.8776011</t>
   </si>
 </sst>
 </file>
@@ -446,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,115 +471,148 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+      <c r="D11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/media/predicted_rnas.xlsx
+++ b/media/predicted_rnas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Drug Sequence</t>
   </si>
@@ -28,10 +28,25 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>CC1=CN(C=N1)C1=CC(NC(=O)C2=CC=C(C)C(NC3=NC=CC(=N3)C3=CN=CC=C3)=C2)=CC(=C1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>CN[C@H]1[C@H](O)[C@@H](O)[C@H](CO)O[C@H]1O[C@H]1[C@H](O[C@H]2[C@H](O)[C@@H](O)[C@H](NC(N)=N)[C@@H](O)[C@@H]2NC(N)=N)O[C@@H](C)[C@]1(O)C=O</t>
+    <t>CC(C)OC1=C(NC2=NC=C(Cl)C(N2)=NC2=CC=CC=C2S(=O)(=O)C(C)C)C=C(C)C(=C1)C1CCNCC1</t>
+  </si>
+  <si>
+    <t>COC(=O)C1=CCCN(C)C1</t>
+  </si>
+  <si>
+    <t>MIMAT0000256</t>
+  </si>
+  <si>
+    <t>MIMAT0000278</t>
+  </si>
+  <si>
+    <t>MIMAT0000073</t>
+  </si>
+  <si>
+    <t>MIMAT0000259</t>
+  </si>
+  <si>
+    <t>MIMAT0000244</t>
   </si>
   <si>
     <t>MIMAT0000255</t>
@@ -40,16 +55,28 @@
     <t>MIMAT0000100</t>
   </si>
   <si>
+    <t>MIMAT0000076</t>
+  </si>
+  <si>
     <t>MIMAT0000069</t>
   </si>
   <si>
-    <t>MIMAT0000430</t>
-  </si>
-  <si>
     <t>MIMAT0001631</t>
   </si>
   <si>
-    <t>MIMAT0000076</t>
+    <t>AACAUUCAACGCUGUCGGUGAGU</t>
+  </si>
+  <si>
+    <t>AGCUACAUUGUCUGCUGGGUUUC</t>
+  </si>
+  <si>
+    <t>UGUGCAAAUCUAUGCAAAACUGA</t>
+  </si>
+  <si>
+    <t>UUUGGCAAUGGUAGAACUCACACU</t>
+  </si>
+  <si>
+    <t>UGUAAACAUCCUACACUCUCAGC</t>
   </si>
   <si>
     <t>UGGCAGUGUCUUAGCUGGUUGU</t>
@@ -58,46 +85,43 @@
     <t>UAGCACCAUUUGAAAUCAGUGUU</t>
   </si>
   <si>
+    <t>UAGCUUAUCAGACUGAUGUUGA</t>
+  </si>
+  <si>
     <t>UAGCAGCACGUAAAUAUUGGCG</t>
   </si>
   <si>
-    <t>AGCUGGUGUUGUGAAUCAGGCCG</t>
-  </si>
-  <si>
     <t>AAACCGUUACCAUUACUGAGUU</t>
   </si>
   <si>
-    <t>UAGCUUAUCAGACUGAUGUUGA</t>
-  </si>
-  <si>
-    <t>0.9809092</t>
-  </si>
-  <si>
-    <t>0.9754219</t>
-  </si>
-  <si>
-    <t>0.92320144</t>
-  </si>
-  <si>
-    <t>0.89227533</t>
-  </si>
-  <si>
-    <t>0.87632114</t>
-  </si>
-  <si>
-    <t>0.9662793</t>
-  </si>
-  <si>
-    <t>0.94811857</t>
-  </si>
-  <si>
-    <t>0.91984457</t>
-  </si>
-  <si>
-    <t>0.87992126</t>
-  </si>
-  <si>
-    <t>0.8776011</t>
+    <t>0.99916744</t>
+  </si>
+  <si>
+    <t>0.99864227</t>
+  </si>
+  <si>
+    <t>0.9981748</t>
+  </si>
+  <si>
+    <t>0.9981646</t>
+  </si>
+  <si>
+    <t>0.99775296</t>
+  </si>
+  <si>
+    <t>0.92848957</t>
+  </si>
+  <si>
+    <t>0.9092792</t>
+  </si>
+  <si>
+    <t>0.7908063</t>
+  </si>
+  <si>
+    <t>0.7784911</t>
+  </si>
+  <si>
+    <t>0.76774484</t>
   </si>
 </sst>
 </file>
@@ -483,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -497,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -511,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -525,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -539,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -550,13 +574,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -564,13 +588,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -578,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -592,13 +616,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -606,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
